--- a/api/LibroEstudiantes.xlsx
+++ b/api/LibroEstudiantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="6630"/>
+    <workbookView windowWidth="16275" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Codigo curso</t>
   </si>
   <si>
-    <t>I123A</t>
+    <t>C123O</t>
   </si>
   <si>
     <t>Codigo</t>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/api/LibroEstudiantes.xlsx
+++ b/api/LibroEstudiantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16275" windowHeight="11580"/>
+    <workbookView windowWidth="19635" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Codigo curso</t>
   </si>
   <si>
-    <t>C123O</t>
+    <t>45c</t>
   </si>
   <si>
     <t>Codigo</t>

--- a/api/LibroEstudiantes.xlsx
+++ b/api/LibroEstudiantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16275" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Codigo curso</t>
   </si>
   <si>
-    <t>C123O</t>
+    <t>C321C</t>
   </si>
   <si>
     <t>Codigo</t>

--- a/api/LibroEstudiantes.xlsx
+++ b/api/LibroEstudiantes.xlsx
@@ -32,7 +32,7 @@
     <t>Codigo curso</t>
   </si>
   <si>
-    <t>C321C</t>
+    <t>I123A</t>
   </si>
   <si>
     <t>Codigo</t>
